--- a/Realsense Depth Testing.xlsx
+++ b/Realsense Depth Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6045" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6045" windowHeight="6600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DS 0.0001" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Depth</t>
   </si>
@@ -74,6 +74,21 @@
   <si>
     <t>mm</t>
   </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>clumping</t>
+  </si>
+  <si>
+    <t>depth_clumping</t>
+  </si>
+  <si>
+    <t>historical_average_depth</t>
+  </si>
+  <si>
+    <t>Probably should remove</t>
+  </si>
 </sst>
 </file>
 
@@ -88,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,63 +231,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10642016622922135"/>
-                  <c:y val="-5.6558398950131233E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS 0.0001'!$A$2:$A$51</c:f>
+              <c:f>('DS 0.0001'!$A$2:$A$11,'DS 0.0001'!$A$32:$A$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>9.5</c:v>
                 </c:pt>
@@ -411,6 +385,36 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -418,10 +422,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS 0.0001'!$B$2:$B$51</c:f>
+              <c:f>('DS 0.0001'!$B$2:$B$11,'DS 0.0001'!$B$32:$B$81)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -453,124 +457,154 @@
                   <c:v>457.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.4</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.7</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>162</c:v>
+                  <c:v>94.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>173</c:v>
+                  <c:v>130.17500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>241.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>304.8</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.3</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>184.15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>215.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>123.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>228.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>99.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>94.1</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>130.17500000000001</c:v>
+                  <c:v>31.1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>241.3</c:v>
+                  <c:v>36.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>304.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>2.7</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>184.15</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>142.9</c:v>
+                  <c:v>103.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>215.9</c:v>
+                  <c:v>304.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>279.39999999999998</c:v>
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,11 +619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448345752"/>
-        <c:axId val="448338696"/>
+        <c:axId val="340197744"/>
+        <c:axId val="340201272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448345752"/>
+        <c:axId val="340197744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,6 +643,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (inches)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -646,13 +741,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448338696"/>
+        <c:crossAx val="340201272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448338696"/>
+        <c:axId val="340201272"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -671,6 +767,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Minimum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -708,7 +865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448345752"/>
+        <c:crossAx val="340197744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -758,6 +915,1390 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Depths</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DS 0.001'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>63.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DS 0.001'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340203232"/>
+        <c:axId val="340204800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340203232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth (inches)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340204800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340204800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Minimum Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340203232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Depths</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DS 0.01'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>63.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DS 0.01'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340204408"/>
+        <c:axId val="340202448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340204408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth (inches)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340202448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340202448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Minimum Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340204408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -869,10 +2410,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS 0.0001'!$A$2:$A$51</c:f>
+              <c:f>'DS 0.0001'!$A$2:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>9.5</c:v>
                 </c:pt>
@@ -1021,6 +2562,96 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1028,10 +2659,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS 0.0001'!$B$2:$B$51</c:f>
+              <c:f>'DS 0.0001'!$B$2:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1181,6 +2812,96 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>103.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,10 +2938,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS 0.001'!$A$2:$A$11</c:f>
+              <c:f>'DS 0.001'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>9.5</c:v>
                 </c:pt>
@@ -1249,6 +2970,126 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1256,10 +3097,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS 0.001'!$B$2:$B$11</c:f>
+              <c:f>'DS 0.001'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
@@ -1289,6 +3130,126 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,10 +3286,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS 0.01'!$A$2:$A$11</c:f>
+              <c:f>'DS 0.01'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>9.5</c:v>
                 </c:pt>
@@ -1357,6 +3318,126 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1364,10 +3445,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS 0.01'!$B$2:$B$11</c:f>
+              <c:f>'DS 0.01'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.9</c:v>
                 </c:pt>
@@ -1397,6 +3478,126 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,11 +3612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343948008"/>
-        <c:axId val="343949968"/>
+        <c:axId val="340204016"/>
+        <c:axId val="360620784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343948008"/>
+        <c:axId val="340204016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,12 +3738,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343949968"/>
+        <c:crossAx val="360620784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343949968"/>
+        <c:axId val="360620784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1665,7 +3866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343948008"/>
+        <c:crossAx val="340204016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,6 +4034,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2350,6 +4631,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2901,6 +6214,80 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3198,10 +6585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,10 +6695,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9.5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -3322,97 +6709,97 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <f>A12+6</f>
         <v>15.5</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <f t="shared" ref="A14:A21" si="1">A13+6</f>
         <v>21.5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>10.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>13.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>51.5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>304.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>30.3</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>9.5</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="C22" t="s">
@@ -3420,94 +6807,99 @@
       </c>
       <c r="E22">
         <f>E21 * 25.4</f>
-        <v>279.39999999999998</v>
+        <v>304.79999999999995</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <f>A22+6</f>
         <v>15.5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <f t="shared" ref="A24:A31" si="2">A23+6</f>
         <v>21.5</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>39.5</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>13.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>51.5</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>123.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>228.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>63.5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>99.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9.5</v>
       </c>
@@ -3688,7 +7080,277 @@
         <v>279.39999999999998</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9.5</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>A52+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ref="A54:A61" si="5">A53+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B54">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="B55">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="5"/>
+        <v>33.5</v>
+      </c>
+      <c r="B56">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="5"/>
+        <v>39.5</v>
+      </c>
+      <c r="B57">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="5"/>
+        <v>45.5</v>
+      </c>
+      <c r="B58">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="5"/>
+        <v>51.5</v>
+      </c>
+      <c r="B59">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+      <c r="B60">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="5"/>
+        <v>63.5</v>
+      </c>
+      <c r="B61">
+        <v>304.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9.5</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>A62+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B63">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ref="A64:A71" si="6">A63+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B64">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="B65">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="6"/>
+        <v>33.5</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="6"/>
+        <v>39.5</v>
+      </c>
+      <c r="B67">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="6"/>
+        <v>45.5</v>
+      </c>
+      <c r="B68">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="6"/>
+        <v>51.5</v>
+      </c>
+      <c r="B69">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="6"/>
+        <v>57.5</v>
+      </c>
+      <c r="B70">
+        <v>304.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="6"/>
+        <v>63.5</v>
+      </c>
+      <c r="B71">
+        <v>304.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9.5</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>A72+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ref="A74:A81" si="7">A73+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>27.5</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>33.5</v>
+      </c>
+      <c r="B76">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>39.5</v>
+      </c>
+      <c r="B77">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>45.5</v>
+      </c>
+      <c r="B78">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="7"/>
+        <v>51.5</v>
+      </c>
+      <c r="B79">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="7"/>
+        <v>57.5</v>
+      </c>
+      <c r="B80">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="7"/>
+        <v>63.5</v>
+      </c>
+      <c r="B81">
+        <v>28.4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E25:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3696,10 +7358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,17 +7463,374 @@
         <v>228.6</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9.5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A21" si="1">A13+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="B15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>39.5</v>
+      </c>
+      <c r="B17">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+      <c r="B18">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>51.5</v>
+      </c>
+      <c r="B19">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="B20">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>63.5</v>
+      </c>
+      <c r="B21">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9.5</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A22+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B23">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:A31" si="2">A23+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B24">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+      <c r="B25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="B26">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="B27">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>45.5</v>
+      </c>
+      <c r="B28">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>51.5</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="B30">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9.5</v>
+      </c>
+      <c r="B32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B33">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A41" si="3">A33+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B34">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="B35">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>33.5</v>
+      </c>
+      <c r="B36">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>39.5</v>
+      </c>
+      <c r="B37">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>45.5</v>
+      </c>
+      <c r="B38">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>51.5</v>
+      </c>
+      <c r="B39">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="B40">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>63.5</v>
+      </c>
+      <c r="B41">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9.5</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A42+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B43">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ref="A44:A51" si="4">A43+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B44">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>27.5</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>33.5</v>
+      </c>
+      <c r="B46">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>39.5</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>45.5</v>
+      </c>
+      <c r="B48">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>51.5</v>
+      </c>
+      <c r="B49">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="B50">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>63.5</v>
+      </c>
+      <c r="B51">
+        <v>11.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,8 +7932,365 @@
         <v>5.7</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9.5</v>
+      </c>
+      <c r="B12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A21" si="1">A13+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B14">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+      <c r="B16">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>39.5</v>
+      </c>
+      <c r="B17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+      <c r="B18">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>51.5</v>
+      </c>
+      <c r="B19">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="B20">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>63.5</v>
+      </c>
+      <c r="B21">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9.5</v>
+      </c>
+      <c r="B22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A22+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B23">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:A31" si="2">A23+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B24">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+      <c r="B25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="B26">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>45.5</v>
+      </c>
+      <c r="B28">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>51.5</v>
+      </c>
+      <c r="B29">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="B30">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="B31">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9.5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A41" si="3">A33+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B34">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="B35">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>33.5</v>
+      </c>
+      <c r="B36">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>39.5</v>
+      </c>
+      <c r="B37">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>45.5</v>
+      </c>
+      <c r="B38">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>51.5</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="B40">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>63.5</v>
+      </c>
+      <c r="B41">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9.5</v>
+      </c>
+      <c r="B42">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A42+6</f>
+        <v>15.5</v>
+      </c>
+      <c r="B43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ref="A44:A51" si="4">A43+6</f>
+        <v>21.5</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>27.5</v>
+      </c>
+      <c r="B45">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>33.5</v>
+      </c>
+      <c r="B46">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>39.5</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>45.5</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>51.5</v>
+      </c>
+      <c r="B49">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="B50">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>63.5</v>
+      </c>
+      <c r="B51">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3923,7 +8299,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,15 +8311,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,6 +8369,35 @@
         <v>0.19811921031746027</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
